--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Aplikasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5073DD20-33F2-4F79-BD85-218EE9C0B887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092C83BF-9854-4602-BDA9-E56F0FD616C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35F66D88-F274-4A77-9B34-3EE9E567C037}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Cluster 1</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Tarakan</t>
+  </si>
+  <si>
+    <t>Kab. Kotawaringin Barat</t>
   </si>
 </sst>
 </file>
@@ -137,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B20E31D0-E345-4EFF-B759-A28D306AA64C}" name="Table5" displayName="Table5" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11" xr:uid="{B20E31D0-E345-4EFF-B759-A28D306AA64C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B20E31D0-E345-4EFF-B759-A28D306AA64C}" name="Table5" displayName="Table5" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12" xr:uid="{B20E31D0-E345-4EFF-B759-A28D306AA64C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4AE595E5-B5F1-4BEA-8140-083AA7105EEE}" name="Cluster 1"/>
     <tableColumn id="2" xr3:uid="{5D2B28CB-9046-4DB5-97FF-AC92BC2DB734}" name="Cluster 2"/>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5A9DA5-6379-44C0-B0F0-A9790BE4DF0C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +500,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -505,7 +508,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -513,7 +516,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -521,16 +524,21 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
